--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/20/seed3/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.26509999999999</v>
+        <v>-11.9745</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.017</v>
+        <v>-12.1234</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.868099999999996</v>
+        <v>5.070199999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.34000000000002</v>
+        <v>-22.24050000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.43299999999998</v>
+        <v>-21.54369999999998</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.1881</v>
+        <v>-11.9829</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.6064</v>
+        <v>-21.65490000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,10 +669,10 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.351699999999998</v>
+        <v>5.189399999999997</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.67019999999999</v>
+        <v>-12.34739999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.607199999999994</v>
+        <v>4.848499999999994</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.73679999999998</v>
+        <v>-21.83099999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>5.971300000000001</v>
+        <v>6.276699999999998</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.9649</v>
+        <v>-11.9512</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.32190000000001</v>
+        <v>-11.18890000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.846300000000001</v>
+        <v>8.680500000000002</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.1095</v>
+        <v>-12.1207</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.52249999999998</v>
+        <v>-21.48339999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.88609999999999</v>
+        <v>-13.2565</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.164700000000005</v>
+        <v>5.148900000000005</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.9096</v>
+        <v>5.428</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.989400000000002</v>
+        <v>5.3005</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.1463</v>
+        <v>-13.15439999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.519800000000002</v>
+        <v>8.644100000000003</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.20769999999999</v>
+        <v>-19.28669999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.0261</v>
+        <v>-12.88030000000001</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.123899999999995</v>
+        <v>9.178999999999991</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.1376</v>
+        <v>-12.03080000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1179,10 +1179,10 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.140300000000003</v>
+        <v>5.068799999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.60739999999999</v>
+        <v>-13.46369999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.4226</v>
+        <v>-12.3896</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.733499999999998</v>
+        <v>3.942700000000004</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.715</v>
+        <v>3.971000000000002</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.68279999999998</v>
+        <v>-21.89729999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.15769999999999</v>
+        <v>-12.89129999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.67809999999999</v>
+        <v>-12.61479999999999</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.1163</v>
+        <v>-12.06239999999999</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.47590000000002</v>
+        <v>-21.52260000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>4.503999999999998</v>
+        <v>4.399199999999997</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.52160000000001</v>
+        <v>-12.8851</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.1813</v>
+        <v>5.7745</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.10299999999998</v>
+        <v>-20.10649999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.20789999999997</v>
+        <v>-20.20939999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-19.84149999999998</v>
+        <v>-19.98149999999998</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-20.08209999999997</v>
+        <v>-19.94869999999997</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.5664</v>
+        <v>-21.7269</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.656</v>
+        <v>-21.82180000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.12040000000003</v>
+        <v>-22.11350000000001</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.763699999999995</v>
+        <v>4.855999999999995</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.538299999999999</v>
+        <v>4.4819</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.99479999999999</v>
+        <v>-13.04839999999999</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1995,10 +1995,10 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.325699999999996</v>
+        <v>5.574799999999995</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.8249</v>
+        <v>-10.69399999999999</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.021</v>
+        <v>-10.0898</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.5304</v>
+        <v>-12.5063</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.231300000000005</v>
+        <v>5.347200000000006</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>7.030199999999997</v>
+        <v>6.6374</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.87489999999999</v>
+        <v>-21.66239999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>5.901500000000002</v>
+        <v>5.9028</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.71149999999999</v>
+        <v>-12.5436</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.69439999999999</v>
+        <v>-21.71469999999999</v>
       </c>
       <c r="B102" t="n">
-        <v>5.464500000000003</v>
+        <v>5.177300000000005</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
